--- a/Proceso1_Lala/Data/Config.xlsx
+++ b/Proceso1_Lala/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Documents\UiPath\Proceso1_LALA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Documents\UiPath\Proyecto\Proceso1_Lala\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C3BFE-196E-4FBC-9037-5AD3F61435CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E92131-A2D5-43FD-B6CC-7CBFF47E2CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,44 +139,44 @@
     <t>test.intranetlala.com</t>
   </si>
   <si>
+    <t>Beeckerco2020</t>
+  </si>
+  <si>
+    <t>CAPACITA46</t>
+  </si>
+  <si>
+    <t>1.Inicial</t>
+  </si>
+  <si>
+    <t>password_SAP</t>
+  </si>
+  <si>
+    <t>email_To</t>
+  </si>
+  <si>
+    <t>cruzleonardo00@gmail.com</t>
+  </si>
+  <si>
+    <t>email_Copy1</t>
+  </si>
+  <si>
+    <t>email_Copy2</t>
+  </si>
+  <si>
+    <t>donaldo.cruz@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>donaldo.cruz@beeckerco.com</t>
+  </si>
+  <si>
     <t>m900024@intranetlala.com</t>
-  </si>
-  <si>
-    <t>Beeckerco2020</t>
-  </si>
-  <si>
-    <t>CAPACITA46</t>
-  </si>
-  <si>
-    <t>1.Inicial</t>
-  </si>
-  <si>
-    <t>password_SAP</t>
-  </si>
-  <si>
-    <t>email_To</t>
-  </si>
-  <si>
-    <t>cruzleonardo00@gmail.com</t>
-  </si>
-  <si>
-    <t>email_Copy1</t>
-  </si>
-  <si>
-    <t>email_Copy2</t>
-  </si>
-  <si>
-    <t>donaldo.cruz@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>donaldo.cruz@beeckerco.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,6 +212,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -246,6 +253,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -564,7 +572,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -645,7 +653,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -653,7 +661,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -661,61 +669,63 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Proceso1_Lala/Data/Config.xlsx
+++ b/Proceso1_Lala/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Documents\UiPath\Proyecto\Proceso1_Lala\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Desktop\LALA\Proceso1_Lala\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E92131-A2D5-43FD-B6CC-7CBFF47E2CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297FE16-BEBC-493F-92E0-0E22E3876A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>donaldo.cruz@beeckerco.com</t>
   </si>
   <si>
-    <t>m900024@intranetlala.com</t>
+    <t>m900026@intranetlala.com</t>
   </si>
 </sst>
 </file>

--- a/Proceso1_Lala/Data/Config.xlsx
+++ b/Proceso1_Lala/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Desktop\LALA\Proceso1_Lala\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297FE16-BEBC-493F-92E0-0E22E3876A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E988C58-6EAD-4A49-82D3-65E7B4BAAC23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>CAPACITA46</t>
   </si>
   <si>
-    <t>1.Inicial</t>
-  </si>
-  <si>
     <t>password_SAP</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>m900026@intranetlala.com</t>
+  </si>
+  <si>
+    <t>2.Inicial</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -653,7 +653,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -674,34 +674,34 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
